--- a/00Desing/Chapters.xlsx
+++ b/00Desing/Chapters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inheritors Build\00Desing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C911E-DE5D-4071-8536-626D7B0B7EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B0238-ADFA-4833-ACE8-593A3B4299B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{46999CA7-7FE7-453A-BC64-B241D59F8C53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Chapter</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Cave in Republic</t>
   </si>
   <si>
-    <t>Troub,Edge,Claw</t>
-  </si>
-  <si>
     <t>Border Scuffle</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Escape from kingdom</t>
   </si>
   <si>
-    <t>Armor*2,Samto</t>
-  </si>
-  <si>
     <t>Going to the desert</t>
   </si>
   <si>
@@ -144,6 +138,15 @@
   </si>
   <si>
     <t>Break Walls?</t>
+  </si>
+  <si>
+    <t>Troub,Edge,Claw (Barmaid)</t>
+  </si>
+  <si>
+    <t>Armor*2,(Samto)</t>
+  </si>
+  <si>
+    <t>A mage guy &amp; cleric i guess</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -549,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -574,16 +577,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -591,13 +594,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,13 +608,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,10 +650,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,13 +661,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,10 +686,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
